--- a/src/test/resources/valintatapajono/valintatapajono_yksi_hakija.xlsx
+++ b/src/test/resources/valintatapajono/valintatapajono_yksi_hakija.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessika/dev/oph/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/valintatapajono/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Valintatapajono" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t/>
   </si>
@@ -67,6 +72,12 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Kokonaispisteet</t>
+  </si>
+  <si>
+    <t>55.44</t>
   </si>
 </sst>
 </file>
@@ -107,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -120,6 +131,9 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -130,6 +144,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -455,44 +474,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" style="1" hidden="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="20" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="21" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -506,16 +529,19 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -529,34 +555,32 @@
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" sqref="B5">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D5">
+    <dataValidation type="list" allowBlank="1" sqref="D5:E5">
       <formula1>"Määrittelemätön,Hyväksyttävissä,Hylätty"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>